--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039125E9-1D54-4E5E-A822-ABAD6FBAF429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B43248-206D-4A3F-BC43-41F5BEAD0FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -425,7 +425,8 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <v>760000000</v>
+        <f>2168100000+5613408000</f>
+        <v>7781508000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -439,7 +440,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>427023000</v>
+        <v>527023000</v>
       </c>
       <c r="D4">
         <v>105.5</v>
@@ -452,8 +453,8 @@
       <c r="B5">
         <v>-90.15</v>
       </c>
-      <c r="C5" s="1">
-        <v>82700000</v>
+      <c r="C5">
+        <v>62700000</v>
       </c>
       <c r="D5">
         <v>110</v>
@@ -467,7 +468,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>640000000</v>
+        <v>4120000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -480,8 +481,8 @@
       <c r="B7">
         <v>-90.148899999999998</v>
       </c>
-      <c r="C7" s="1">
-        <v>312500000</v>
+      <c r="C7">
+        <v>1825000000</v>
       </c>
       <c r="D7" s="2">
         <v>113</v>
@@ -494,8 +495,8 @@
       <c r="B8">
         <v>-90.158799999999999</v>
       </c>
-      <c r="C8" s="1">
-        <v>320000000</v>
+      <c r="C8">
+        <v>640000000</v>
       </c>
       <c r="D8" s="2">
         <v>92</v>
@@ -508,7 +509,7 @@
       <c r="B9">
         <v>-89.997600000000006</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>24480000</v>
       </c>
       <c r="D9" s="2">
@@ -574,15 +575,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C555BD0C-067E-4B5F-818A-87196A40AD64}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="A9" sqref="A9:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,6 +673,188 @@
         <v>84</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1995</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>38.896500000000003</v>
+      </c>
+      <c r="B10">
+        <v>-90.102699999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>333180000</v>
+      </c>
+      <c r="D10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>38.629300000000001</v>
+      </c>
+      <c r="B11">
+        <v>-90.162999999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>760000000</v>
+      </c>
+      <c r="D11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>38.6282</v>
+      </c>
+      <c r="B12">
+        <v>-90.126599999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>427023000</v>
+      </c>
+      <c r="D12">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>38.648099999999999</v>
+      </c>
+      <c r="B13">
+        <v>-90.15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>82700000</v>
+      </c>
+      <c r="D13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>38.838500000000003</v>
+      </c>
+      <c r="B14">
+        <v>-90.074600000000004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>640000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>38.700800000000001</v>
+      </c>
+      <c r="B15">
+        <v>-90.148899999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>312500000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="B16">
+        <v>-90.158799999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>38.777099999999997</v>
+      </c>
+      <c r="B17">
+        <v>-89.997600000000006</v>
+      </c>
+      <c r="C17" s="3">
+        <v>24480000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>38.885100000000001</v>
+      </c>
+      <c r="B18">
+        <v>-90.146699999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>38.629300000000001</v>
+      </c>
+      <c r="B19">
+        <v>-90.158000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>350000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>38.839282169999997</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-90.088427949999996</v>
+      </c>
+      <c r="C20" s="2">
+        <v>330491267</v>
+      </c>
+      <c r="D20" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>38.833282169999997</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-90.087427950000006</v>
+      </c>
+      <c r="C21">
+        <v>250491267</v>
+      </c>
+      <c r="D21" s="2">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B43248-206D-4A3F-BC43-41F5BEAD0FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCF2AB-72F7-49A0-B2D9-7FCB009CC67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1500" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A7" sqref="A7:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,99 +476,85 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>38.700800000000001</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B7">
-        <v>-90.148899999999998</v>
+        <v>-90.158799999999999</v>
       </c>
       <c r="C7">
-        <v>1825000000</v>
+        <v>640000000</v>
       </c>
       <c r="D7" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>38.880000000000003</v>
+        <v>38.777099999999997</v>
       </c>
       <c r="B8">
-        <v>-90.158799999999999</v>
-      </c>
-      <c r="C8">
-        <v>640000000</v>
+        <v>-89.997600000000006</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24480000</v>
       </c>
       <c r="D8" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>38.777099999999997</v>
+        <v>38.885100000000001</v>
       </c>
       <c r="B9">
-        <v>-89.997600000000006</v>
-      </c>
-      <c r="C9" s="2">
-        <v>24480000</v>
+        <v>-90.146699999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>320000000</v>
       </c>
       <c r="D9" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>38.885100000000001</v>
+        <v>38.629300000000001</v>
       </c>
       <c r="B10">
-        <v>-90.146699999999996</v>
+        <v>-90.158000000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>320000000</v>
+        <v>350000000</v>
       </c>
       <c r="D10" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>38.629300000000001</v>
-      </c>
-      <c r="B11">
-        <v>-90.158000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>350000000</v>
+      <c r="A11" s="2">
+        <v>38.839282169999997</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-90.088427949999996</v>
+      </c>
+      <c r="C11" s="2">
+        <v>330491267</v>
       </c>
       <c r="D11" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>38.839282169999997</v>
+        <v>38.833282169999997</v>
       </c>
       <c r="B12" s="2">
-        <v>-90.088427949999996</v>
-      </c>
-      <c r="C12" s="2">
-        <v>330491267</v>
+        <v>-90.087427950000006</v>
+      </c>
+      <c r="C12">
+        <v>250491267</v>
       </c>
       <c r="D12" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>38.833282169999997</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-90.087427950000006</v>
-      </c>
-      <c r="C13">
-        <v>250491267</v>
-      </c>
-      <c r="D13" s="2">
         <v>99</v>
       </c>
     </row>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CCF2AB-72F7-49A0-B2D9-7FCB009CC67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5853AFE8-E17A-4599-BB66-9292801DE409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>4120000000</v>
+        <v>3120000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -537,8 +537,8 @@
       <c r="B11" s="2">
         <v>-90.088427949999996</v>
       </c>
-      <c r="C11" s="2">
-        <v>330491267</v>
+      <c r="C11">
+        <v>250491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -551,8 +551,8 @@
       <c r="B12" s="2">
         <v>-90.087427950000006</v>
       </c>
-      <c r="C12">
-        <v>250491267</v>
+      <c r="C12" s="2">
+        <v>330491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5853AFE8-E17A-4599-BB66-9292801DE409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B46B4-49EB-4A39-A0C5-C14DCBE28511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -425,8 +425,8 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <f>2168100000+5613408000</f>
-        <v>7781508000</v>
+        <f>2168100000+3613408000</f>
+        <v>5781508000</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -468,7 +468,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>3120000000</v>
+        <v>2520000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -538,7 +538,7 @@
         <v>-90.088427949999996</v>
       </c>
       <c r="C11">
-        <v>250491267</v>
+        <v>350491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -552,7 +552,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>330491267</v>
+        <v>430491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -570,7 +570,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E22"/>
+      <selection activeCell="D21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,8 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C11" s="3">
-        <v>760000000</v>
+        <f>2168100000+5613408000</f>
+        <v>7781508000</v>
       </c>
       <c r="D11">
         <v>96</v>
@@ -709,7 +710,7 @@
         <v>-90.126599999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>427023000</v>
+        <v>527023000</v>
       </c>
       <c r="D12">
         <v>105.5</v>
@@ -722,8 +723,8 @@
       <c r="B13">
         <v>-90.15</v>
       </c>
-      <c r="C13" s="1">
-        <v>82700000</v>
+      <c r="C13">
+        <v>62700000</v>
       </c>
       <c r="D13">
         <v>110</v>
@@ -737,7 +738,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>640000000</v>
+        <v>3120000000</v>
       </c>
       <c r="D14" s="2">
         <v>115</v>
@@ -745,80 +746,80 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>38.700800000000001</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="B15">
-        <v>-90.148899999999998</v>
-      </c>
-      <c r="C15" s="1">
-        <v>312500000</v>
+        <v>-90.158799999999999</v>
+      </c>
+      <c r="C15">
+        <v>640000000</v>
       </c>
       <c r="D15" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>38.880000000000003</v>
+        <v>38.777099999999997</v>
       </c>
       <c r="B16">
-        <v>-90.158799999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>320000000</v>
+        <v>-89.997600000000006</v>
+      </c>
+      <c r="C16" s="2">
+        <v>24480000</v>
       </c>
       <c r="D16" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>38.777099999999997</v>
+        <v>38.885100000000001</v>
       </c>
       <c r="B17">
-        <v>-89.997600000000006</v>
-      </c>
-      <c r="C17" s="3">
-        <v>24480000</v>
+        <v>-90.146699999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>320000000</v>
       </c>
       <c r="D17" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>38.885100000000001</v>
+        <v>38.629300000000001</v>
       </c>
       <c r="B18">
-        <v>-90.146699999999996</v>
+        <v>-90.158000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>320000000</v>
+        <v>350000000</v>
       </c>
       <c r="D18" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>38.629300000000001</v>
-      </c>
-      <c r="B19">
-        <v>-90.158000000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>350000000</v>
+      <c r="A19" s="2">
+        <v>38.839282169999997</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-90.088427949999996</v>
+      </c>
+      <c r="C19">
+        <v>250491267</v>
       </c>
       <c r="D19" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>38.839282169999997</v>
+        <v>38.833282169999997</v>
       </c>
       <c r="B20" s="2">
-        <v>-90.088427949999996</v>
+        <v>-90.087427950000006</v>
       </c>
       <c r="C20" s="2">
         <v>330491267</v>
@@ -828,18 +829,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>38.833282169999997</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-90.087427950000006</v>
-      </c>
-      <c r="C21">
-        <v>250491267</v>
-      </c>
-      <c r="D21" s="2">
-        <v>99</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B46B4-49EB-4A39-A0C5-C14DCBE28511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2617C-AAD8-4569-AFAB-1AC452EC6231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,10 +535,10 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.088427949999996</v>
+        <v>-90.012842794999997</v>
       </c>
       <c r="C11">
-        <v>350491267</v>
+        <v>450491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -552,7 +552,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>430491267</v>
+        <v>530491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2617C-AAD8-4569-AFAB-1AC452EC6231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDA4F8-BA3D-478C-B2D1-F62364A16168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
         <v>-90.012842794999997</v>
       </c>
       <c r="C11">
-        <v>450491267</v>
+        <v>850491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -552,7 +552,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>530491267</v>
+        <v>830491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FDA4F8-BA3D-478C-B2D1-F62364A16168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4765E87-F213-4333-8268-40E5FDAE9EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,8 @@
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -538,7 +539,7 @@
         <v>-90.012842794999997</v>
       </c>
       <c r="C11">
-        <v>850491267</v>
+        <v>1250491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -552,7 +553,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>830491267</v>
+        <v>1230491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4765E87-F213-4333-8268-40E5FDAE9EC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31032E99-665F-4A85-BF4D-B232FFD3FD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>2520000000</v>
+        <v>2020000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -536,10 +536,10 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.012842794999997</v>
+        <v>-90.091842795000005</v>
       </c>
       <c r="C11">
-        <v>1250491267</v>
+        <v>1450491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>
@@ -553,7 +553,7 @@
         <v>-90.087427950000006</v>
       </c>
       <c r="C12" s="2">
-        <v>1230491267</v>
+        <v>1430491267</v>
       </c>
       <c r="D12" s="2">
         <v>99</v>
@@ -571,7 +571,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:D21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31032E99-665F-4A85-BF4D-B232FFD3FD48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC060B5A-25F9-4218-96C1-6BDAB7A74E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>2020000000</v>
+        <v>1420000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -539,7 +539,7 @@
         <v>-90.091842795000005</v>
       </c>
       <c r="C11">
-        <v>1450491267</v>
+        <v>1850491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC060B5A-25F9-4218-96C1-6BDAB7A74E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91265-D07D-4F15-8F29-D46EFF053920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.091842795000005</v>
+        <v>-90.098842794999996</v>
       </c>
       <c r="C11">
         <v>1850491267</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B91265-D07D-4F15-8F29-D46EFF053920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB174C3-860E-468B-AC73-E2B025F00014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1420000000</v>
+        <v>1220000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -536,7 +536,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.098842794999996</v>
+        <v>-90.102842795000001</v>
       </c>
       <c r="C11">
         <v>1850491267</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB174C3-860E-468B-AC73-E2B025F00014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835BEBA1-4D27-4617-BCD2-9ABA3B4E6DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,10 +536,10 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.102842795000001</v>
+        <v>-90.099842795000001</v>
       </c>
       <c r="C11">
-        <v>1850491267</v>
+        <v>1950491267</v>
       </c>
       <c r="D11" s="2">
         <v>99</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835BEBA1-4D27-4617-BCD2-9ABA3B4E6DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865F3DD-799A-41BD-9170-BE743E8E9196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
         <v>-90.074600000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1220000000</v>
+        <v>1020000000</v>
       </c>
       <c r="D6" s="2">
         <v>115</v>
@@ -536,7 +536,7 @@
         <v>38.839282169999997</v>
       </c>
       <c r="B11" s="2">
-        <v>-90.099842795000001</v>
+        <v>-90.096842795000001</v>
       </c>
       <c r="C11">
         <v>1950491267</v>

--- a/pumping/ESL_lost_coordinates2.xlsx
+++ b/pumping/ESL_lost_coordinates2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqua\GEO572-Project-E.St.Louis\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7865F3DD-799A-41BD-9170-BE743E8E9196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D347D3E-196F-4AFB-A57A-2243D9113637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="1548" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -426,8 +426,8 @@
         <v>-90.162999999999997</v>
       </c>
       <c r="C3" s="3">
-        <f>2168100000+3613408000</f>
-        <v>5781508000</v>
+        <f>2168100000+3013408000</f>
+        <v>5181508000</v>
       </c>
       <c r="D3">
         <v>96</v>
